--- a/biology/Biochimie/Benjamin_List/Benjamin_List.xlsx
+++ b/biology/Biochimie/Benjamin_List/Benjamin_List.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin List, né le 11 janvier 1968 à Francfort-sur-le-Main, est un chimiste allemand. Il est lauréat du Prix Nobel de chimie en 2021.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benjamin List est diplômé en 1993 en chimie de l'Université libre de Berlin, et obtient son doctorat – thèse : Synthese eines Vitamin B 12 Semicorrins (Synthesis of a vitamin B 12 semicorrin), directeur de thèse : Johann Mulzer – en 1997 à l'université de Francfort[1].
-De 1999 à 2003, il travaille à l'Institut de recherche Scripps[1].
-De 2003 à 2005, il est responsable de groupe à l'institut Max-Planck pour la recherche sur le charbon (de), puis en 2005 il en devient le directeur[1].
-Le 6 octobre 2021, Benjamin List obtient le Prix Nobel de chimie avec David MacMillan pour le développement de l'organocatalyse asymétrique, un nouvel outil de construction des molécules qui a permis de verdir la chimie et d'améliorer la recherche pharmaceutique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin List est diplômé en 1993 en chimie de l'Université libre de Berlin, et obtient son doctorat – thèse : Synthese eines Vitamin B 12 Semicorrins (Synthesis of a vitamin B 12 semicorrin), directeur de thèse : Johann Mulzer – en 1997 à l'université de Francfort.
+De 1999 à 2003, il travaille à l'Institut de recherche Scripps.
+De 2003 à 2005, il est responsable de groupe à l'institut Max-Planck pour la recherche sur le charbon (de), puis en 2005 il en devient le directeur.
+Le 6 octobre 2021, Benjamin List obtient le Prix Nobel de chimie avec David MacMillan pour le développement de l'organocatalyse asymétrique, un nouvel outil de construction des molécules qui a permis de verdir la chimie et d'améliorer la recherche pharmaceutique.
 </t>
         </is>
       </c>
